--- a/medicine/Enfance/Marie_Gray/Marie_Gray.xlsx
+++ b/medicine/Enfance/Marie_Gray/Marie_Gray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Gray (Laval est une auteure québécoise notamment connue pour ses ouvrages destinés aux adultes (les Histoires à faire rougir) qui ont obtenu un grand succès tant au Québec qu'à l'étranger. Traduites en quatorze langues, les ventes ont atteint 1 million d'exemplaires. L'auteure a par la suite lancé la collection Oseras-tu? pour les jeunes de 14 à 18 ans qui a pour objectif de faire de la prévention en matière de sexualité, toxicomanie, homophobie, suicide, etc. Elle est porte-voix pour l'Association Québécoise de prévention du suicide. Elle a ensuite publié la trilogie Baiser en 2015 et 2016, suivie du roman Il était une voix en 2017 et de Sois belle et tais-toi en 2019.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancienne chanteuse rock (1982 à 1994), elle quitte le milieu du spectacle et se consacre, entre autres, à l'écriture de nouvelles. Elle anime, en 2002-2003, une chronique mensuelle de littérature érotique à l'émission télévisuelle Sexe et Confidences du réseau Télévision Quatre-Saisons. Elle donne des conférences très appréciées en milieu scolaire pour ses ouvrages destinés aux adolescents et est directrice littéraire chez Guy Saint-Jean Éditeur, l'entreprise familiale.
 </t>
